--- a/SasquatchCAIRS/SasquatchCAIRS/AuditLogTemplate.xlsx
+++ b/SasquatchCAIRS/SasquatchCAIRS/AuditLogTemplate.xlsx
@@ -4,12 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19440" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -359,6 +371,78 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -381,4 +465,76 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>